--- a/documentation/Planning V1.xlsx
+++ b/documentation/Planning V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Super-Maintenance-Web\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7F8480-13CB-4225-AC35-D8B056421B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA96941-455B-4B77-B5E8-F3D1E51A055B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{86F466E6-282D-47AC-8147-7CB72DB0041F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{86F466E6-282D-47AC-8147-7CB72DB0041F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>Tâche</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>- Visualisation des détails d'une intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Migration</t>
+  </si>
+  <si>
+    <t>Migration</t>
   </si>
 </sst>
 </file>
@@ -338,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -424,11 +430,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -521,6 +568,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -533,9 +583,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,62 +923,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817B9D33-C5B8-4FAA-9ED6-20225FB0C8F1}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V36" sqref="V36"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.47265625" customWidth="1"/>
-    <col min="2" max="2" width="8.5234375" customWidth="1"/>
-    <col min="3" max="3" width="7.41796875" customWidth="1"/>
-    <col min="4" max="20" width="3.89453125" customWidth="1"/>
-    <col min="21" max="21" width="3.89453125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.5234375" style="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="20" width="3.85546875" customWidth="1"/>
+    <col min="21" max="21" width="3.85546875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="34" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="34" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="37" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1002,7 +1068,7 @@
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1097,7 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1126,7 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1155,7 @@
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1111,7 +1177,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1136,7 +1202,7 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
@@ -1165,7 +1231,7 @@
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1260,7 @@
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1289,7 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -1252,7 +1318,7 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +1347,7 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1310,7 +1376,7 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
@@ -1339,7 +1405,7 @@
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1361,7 +1427,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>11</v>
       </c>
@@ -1386,7 +1452,7 @@
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>16</v>
       </c>
@@ -1411,7 +1477,7 @@
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -1440,7 +1506,7 @@
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="21"/>
@@ -1463,7 +1529,7 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>14</v>
       </c>
@@ -1488,7 +1554,7 @@
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>23</v>
       </c>
@@ -1517,7 +1583,7 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
-    <row r="24" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
@@ -1545,7 +1611,7 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
     </row>
-    <row r="25" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -1574,7 +1640,7 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>46</v>
       </c>
@@ -1603,7 +1669,7 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -1623,16 +1689,15 @@
       <c r="K27" s="8"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="8"/>
+      <c r="N27" s="29"/>
       <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
       <c r="S27" s="22"/>
       <c r="T27" s="28"/>
       <c r="U27" s="28"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>15</v>
       </c>
@@ -1657,7 +1722,7 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
@@ -1686,7 +1751,7 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>49</v>
       </c>
@@ -1702,9 +1767,8 @@
       <c r="G30" s="22"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -1715,7 +1779,7 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>50</v>
       </c>
@@ -1733,8 +1797,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="29"/>
+      <c r="L31" s="29"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -1744,8 +1807,8 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="9">
@@ -1762,9 +1825,8 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="L32" s="29"/>
       <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="23"/>
@@ -1773,7 +1835,7 @@
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>51</v>
       </c>
@@ -1793,8 +1855,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="29"/>
+      <c r="N33" s="29"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="23"/>
       <c r="R33" s="23"/>
@@ -1802,7 +1863,7 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>52</v>
       </c>
@@ -1822,17 +1883,17 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
       <c r="S34" s="22"/>
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="9">
@@ -1851,21 +1912,21 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="41"/>
       <c r="Q35" s="23"/>
       <c r="R35" s="23"/>
       <c r="S35" s="22"/>
       <c r="T35" s="8"/>
       <c r="U35" s="8"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>42</v>
@@ -1881,20 +1942,20 @@
       <c r="L36" s="8"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="40"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
       <c r="S36" s="22"/>
-      <c r="T36" s="28"/>
+      <c r="T36" s="45"/>
       <c r="U36" s="8"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>42</v>
@@ -1910,125 +1971,125 @@
       <c r="L37" s="8"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="40"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="28"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="6" t="s">
-        <v>55</v>
+      <c r="S37" s="43"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="44"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>58</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="28"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="8" t="s">
-        <v>26</v>
+      <c r="S38" s="43"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="44"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="B39" s="9">
         <v>1</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="23"/>
       <c r="R39" s="23"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="9">
-        <v>1</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="44"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="8"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
       <c r="S40" s="22"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="15"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="22"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
       <c r="S41" s="22"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B42" s="9">
         <v>1</v>
@@ -2038,115 +2099,169 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="28"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="22"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="8"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="23"/>
       <c r="S42" s="22"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
       <c r="Q43" s="23"/>
       <c r="R43" s="23"/>
       <c r="S43" s="22"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" s="9">
         <v>1</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="22"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
       <c r="Q44" s="23"/>
       <c r="R44" s="23"/>
       <c r="S44" s="22"/>
-      <c r="T44" s="33"/>
+      <c r="T44" s="8"/>
       <c r="U44" s="8"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" t="s">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="9">
+        <v>1</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="8"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>28</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="E47" t="s">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="E48" t="s">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" t="s">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>36</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" t="s">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>39</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="23"/>
+      <c r="E54" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">
